--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/VIRGINIA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/VIRGINIA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1134"/>
+  <dimension ref="A1:D1128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C8">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C32">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C40">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C57">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C67">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C68">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C98">
@@ -1751,7 +1751,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C105">
@@ -1938,7 +1938,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C119">
@@ -2047,7 +2047,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C131">
@@ -2137,7 +2137,7 @@
         <v>53</v>
       </c>
       <c r="D133">
-        <v>0.009142659996549939</v>
+        <v>0.009142659996549941</v>
       </c>
     </row>
     <row r="134">
@@ -2163,7 +2163,7 @@
         <v>53</v>
       </c>
       <c r="D135">
-        <v>0.009142659996549939</v>
+        <v>0.009142659996549941</v>
       </c>
     </row>
     <row r="136">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C153">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C155">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C157">
@@ -2460,7 +2460,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C158">
@@ -2538,12 +2538,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C164">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C168">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C171">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C176">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C181">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C183">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C184">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C195">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C202">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C211">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C216">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C222">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C231">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C232">
@@ -3445,7 +3445,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C233">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C241">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C245">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C253">
@@ -3757,7 +3757,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C257">
@@ -3783,7 +3783,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C259">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C261">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C262">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C264">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C269">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C274">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C276">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C281">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C283">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C288">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C291">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C294">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C296">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C307">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C309">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C311">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C314">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C315">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C326">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C329">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C331">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C334">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C337">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C342">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C343">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C346">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C349">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C355">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C357">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C358">
@@ -5106,7 +5106,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C360">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C366">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C368">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C373">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C374">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C377">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C379">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C387">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C390">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C392">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C396">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C402">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C403">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C405">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C409">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C411">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C413">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C416">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C417">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C424">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C429">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C430">
@@ -6741,7 +6741,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C485">
@@ -6967,7 +6967,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C502">
@@ -7097,7 +7097,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C512">
@@ -7162,7 +7162,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C517">
@@ -7284,7 +7284,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C526">
@@ -7349,7 +7349,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C531">
@@ -7575,7 +7575,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C548">
@@ -7614,7 +7614,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C551">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C554">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C557">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C559">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C562">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C564">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C565">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C566">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C567">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C568">
@@ -7853,7 +7853,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C569">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C570">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C574">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C575">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C578">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C579">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C580">
@@ -8009,7 +8009,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C581">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C582">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C583">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C584">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C592">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C597">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C599">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C609">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C642">
@@ -9023,7 +9023,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C659">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C689">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C707">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C719">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C720">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C721">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C722">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C723">
@@ -9868,7 +9868,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C724">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C725">
@@ -9907,7 +9907,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C727">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C728">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C731">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C732">
@@ -9998,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C734">
@@ -10146,7 +10146,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C745">
@@ -10406,7 +10406,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C765">
@@ -10497,7 +10497,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C772">
@@ -10549,7 +10549,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C776">
@@ -10679,7 +10679,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C786">
@@ -10692,7 +10692,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C787">
@@ -10796,7 +10796,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C795">
@@ -10809,7 +10809,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C796">
@@ -10861,7 +10861,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C800">
@@ -10913,7 +10913,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C804">
@@ -11165,7 +11165,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C823">
@@ -11191,7 +11191,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C825">
@@ -11269,7 +11269,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C831">
@@ -11282,7 +11282,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C832">
@@ -11321,7 +11321,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C835">
@@ -11360,7 +11360,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C838">
@@ -11578,7 +11578,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C854">
@@ -11708,7 +11708,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C864">
@@ -11760,7 +11760,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C868">
@@ -11851,7 +11851,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C875">
@@ -11864,7 +11864,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C876">
@@ -11877,7 +11877,7 @@
     <row r="877">
       <c r="B877" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C877">
@@ -12334,7 +12334,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C911">
@@ -12703,7 +12703,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C939">
@@ -12890,7 +12890,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C953">
@@ -12903,7 +12903,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C954">
@@ -12981,7 +12981,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C960">
@@ -13155,7 +13155,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C973">
@@ -13194,7 +13194,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C976">
@@ -13350,7 +13350,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C988">
@@ -13532,7 +13532,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1002">
@@ -13545,7 +13545,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1003">
@@ -13727,7 +13727,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1017">
@@ -13740,7 +13740,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1018">
@@ -13753,7 +13753,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1019">
@@ -13779,7 +13779,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1021">
@@ -13792,7 +13792,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1022">
@@ -13883,7 +13883,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1029">
@@ -13909,7 +13909,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1031">
@@ -13948,7 +13948,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1034">
@@ -14117,7 +14117,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1047">
@@ -14130,7 +14130,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1048">
@@ -14156,7 +14156,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1050">
@@ -14208,7 +14208,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1054">
@@ -14221,7 +14221,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1055">
@@ -14611,7 +14611,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1085">
@@ -14790,7 +14790,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1098">
@@ -14894,7 +14894,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1106">
@@ -14946,7 +14946,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1110">
@@ -14972,7 +14972,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1112">
@@ -14985,7 +14985,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1113">
@@ -15089,7 +15089,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1121">
@@ -15128,7 +15128,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1124">
@@ -15188,41 +15188,6 @@
       </c>
       <c r="D1128">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
